--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigven/project_data/package__phenoOncoX/phenoOncoX/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53C178C-644F-2648-A2B6-F1B6607F213E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD4EC08-E0F8-2646-B39F-920365149737}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20920" yWindow="2660" windowWidth="26840" windowHeight="15940" xr2:uid="{FE925BBA-8697-304B-A498-CFC01A1CEF4E}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>2021_11_02</t>
   </si>
   <si>
-    <t>v3.47.0</t>
-  </si>
-  <si>
     <t>Malone et al., Bioinformatics, 2010; 20200009</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Hereditary cancer phenotypes/syndromes</t>
+  </si>
+  <si>
+    <t>v3.48.0</t>
   </si>
 </sst>
 </file>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032AA6E1-7CD1-0142-A783-7CD36AF8CD61}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>22</v>
@@ -583,10 +583,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -603,10 +603,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -629,20 +629,20 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigven/project_data/package__phenoOncoX/phenoOncoX/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigven/project_data/package_phenOncoX/phenOncoX/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD4EC08-E0F8-2646-B39F-920365149737}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F25405-E9B4-4A4D-BF09-C51A96275692}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20920" yWindow="2660" windowWidth="26840" windowHeight="15940" xr2:uid="{FE925BBA-8697-304B-A498-CFC01A1CEF4E}"/>
+    <workbookView xWindow="5400" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FE925BBA-8697-304B-A498-CFC01A1CEF4E}"/>
   </bookViews>
   <sheets>
-    <sheet name="pheno_oncox" sheetId="5" r:id="rId1"/>
+    <sheet name="phen_oncox" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -105,9 +105,6 @@
     <t>Kundra et al., JCO Clin Cancer Inform, 2021; 33625877</t>
   </si>
   <si>
-    <t>v2022-10</t>
-  </si>
-  <si>
     <t>Huang et al., Cell, 2018</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>v3.48.0</t>
+  </si>
+  <si>
+    <t>v2022-11-30</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -606,7 +606,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -629,20 +629,20 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigven/project_data/package_phenOncoX/phenOncoX/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigven/project_data/package__phenOncoX/phenOncoX/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F25405-E9B4-4A4D-BF09-C51A96275692}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1A1E87-52BD-D74D-8F0B-F93EF0B4C9BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FE925BBA-8697-304B-A498-CFC01A1CEF4E}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Hereditary cancer phenotypes/syndromes</t>
   </si>
   <si>
-    <t>v3.48.0</t>
-  </si>
-  <si>
-    <t>v2022-11-30</t>
+    <t>v3.49.0</t>
+  </si>
+  <si>
+    <t>v2022-12-15</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigven/project_data/package__phenOncoX/phenOncoX/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1A1E87-52BD-D74D-8F0B-F93EF0B4C9BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372A8D83-1DFA-A947-B0C1-BC88FBF591A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FE925BBA-8697-304B-A498-CFC01A1CEF4E}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Hereditary cancer phenotypes/syndromes</t>
   </si>
   <si>
-    <t>v3.49.0</t>
-  </si>
-  <si>
-    <t>v2022-12-15</t>
+    <t>v2023-01-31</t>
+  </si>
+  <si>
+    <t>v3.50.0</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -606,7 +606,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>

--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigven/project_data/package__phenOncoX/phenOncoX/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372A8D83-1DFA-A947-B0C1-BC88FBF591A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE5446A-566F-3749-8207-23961D17476C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FE925BBA-8697-304B-A498-CFC01A1CEF4E}"/>
+    <workbookView xWindow="5940" yWindow="2780" windowWidth="26840" windowHeight="15940" xr2:uid="{FE925BBA-8697-304B-A498-CFC01A1CEF4E}"/>
   </bookViews>
   <sheets>
     <sheet name="phen_oncox" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,10 +120,10 @@
     <t>Hereditary cancer phenotypes/syndromes</t>
   </si>
   <si>
-    <t>v2023-01-31</t>
-  </si>
-  <si>
-    <t>v3.50.0</t>
+    <t>v3.51.0</t>
+  </si>
+  <si>
+    <t>v2023-02-27</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -606,7 +606,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>

--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigven/project_data/package__phenOncoX/phenOncoX/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE5446A-566F-3749-8207-23961D17476C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCB8F0E-F9B7-8C4E-88DE-99C13D9F4DD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="2780" windowWidth="26840" windowHeight="15940" xr2:uid="{FE925BBA-8697-304B-A498-CFC01A1CEF4E}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Hereditary cancer phenotypes/syndromes</t>
   </si>
   <si>
-    <t>v3.51.0</t>
-  </si>
-  <si>
-    <t>v2023-02-27</t>
+    <t>v2023-04-01</t>
+  </si>
+  <si>
+    <t>v3.52.0</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -606,7 +606,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>

--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigven/project_data/package__phenOncoX/phenOncoX/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCB8F0E-F9B7-8C4E-88DE-99C13D9F4DD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6805F70E-A24A-774D-85F4-55925C8F292D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="2780" windowWidth="26840" windowHeight="15940" xr2:uid="{FE925BBA-8697-304B-A498-CFC01A1CEF4E}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>v2023-04-01</t>
   </si>
   <si>
-    <t>v3.52.0</t>
+    <t>v3.54.0</t>
   </si>
 </sst>
 </file>

--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigven/project_data/package__phenOncoX/phenOncoX/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6805F70E-A24A-774D-85F4-55925C8F292D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C232A9A-365B-7440-8383-099BDE80BD8D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="2780" windowWidth="26840" windowHeight="15940" xr2:uid="{FE925BBA-8697-304B-A498-CFC01A1CEF4E}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>Hereditary cancer phenotypes/syndromes</t>
   </si>
   <si>
-    <t>v2023-04-01</t>
-  </si>
-  <si>
     <t>v3.54.0</t>
+  </si>
+  <si>
+    <t>v2023-05-31</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -606,7 +606,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
